--- a/app/src/main/assets/Artificial Intelligence.xlsx
+++ b/app/src/main/assets/Artificial Intelligence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C752E-EB72-4C88-AEB2-B062B64EE4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5722952B-17C3-42DF-9517-A55AB48B29C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="184">
   <si>
     <t>It is the ability to acquire and apply knowledge. It includes the ability to benefit from past experiences, act decisively to solve problems, and adapt to new situations</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -611,12 +614,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +915,7 @@
     <col min="6" max="6" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -935,8 +937,11 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -958,8 +963,11 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -981,8 +989,11 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -1004,8 +1015,11 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -1050,8 +1067,11 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -1073,8 +1093,11 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -1096,8 +1119,11 @@
       <c r="G8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -1119,8 +1145,11 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -1142,8 +1171,11 @@
       <c r="G10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -1165,8 +1197,11 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -1188,8 +1223,11 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -1211,8 +1249,11 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -1234,8 +1275,11 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -1257,8 +1301,11 @@
       <c r="G15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -1280,8 +1327,11 @@
       <c r="G16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -1303,8 +1353,11 @@
       <c r="G17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -1326,8 +1379,11 @@
       <c r="G18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -1349,8 +1405,11 @@
       <c r="G19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -1372,8 +1431,11 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -1395,8 +1457,11 @@
       <c r="G21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1418,8 +1483,11 @@
       <c r="G22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1440,6 +1508,9 @@
       </c>
       <c r="G23" t="s">
         <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A37D6AF-8FDD-42CF-BCC4-D369734476DF}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1533,7 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -1472,8 +1543,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -1483,8 +1557,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -1494,8 +1571,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -1505,8 +1585,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1516,8 +1599,11 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -1527,8 +1613,11 @@
       <c r="C6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -1538,8 +1627,11 @@
       <c r="C7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -1549,8 +1641,11 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -1560,8 +1655,11 @@
       <c r="C9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -1571,8 +1669,11 @@
       <c r="C10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -1582,8 +1683,11 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -1593,8 +1697,11 @@
       <c r="C12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -1604,8 +1711,11 @@
       <c r="C13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -1615,8 +1725,11 @@
       <c r="C14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -1626,8 +1739,11 @@
       <c r="C15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -1637,8 +1753,11 @@
       <c r="C16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>180</v>
       </c>
@@ -1648,8 +1767,11 @@
       <c r="C17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -1659,8 +1781,11 @@
       <c r="C18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -1670,8 +1795,11 @@
       <c r="C19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -1681,8 +1809,11 @@
       <c r="C20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -1692,8 +1823,11 @@
       <c r="C21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>181</v>
       </c>
@@ -1703,8 +1837,11 @@
       <c r="C22" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -1714,8 +1851,11 @@
       <c r="C23" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -1725,8 +1865,11 @@
       <c r="C24" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -1736,8 +1879,11 @@
       <c r="C25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -1747,8 +1893,11 @@
       <c r="C26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1758,8 +1907,11 @@
       <c r="C27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1769,8 +1921,11 @@
       <c r="C28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1780,8 +1935,11 @@
       <c r="C29" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1791,8 +1949,11 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1801,6 +1962,9 @@
       </c>
       <c r="C31" t="s">
         <v>165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1810,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9213459B-F56A-44E7-AE22-37D02A8898D1}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,7 +1986,7 @@
     <col min="2" max="2" width="162.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -1832,8 +1996,11 @@
       <c r="C1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -1843,8 +2010,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -1854,8 +2024,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -1865,8 +2038,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -1876,8 +2052,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -1887,8 +2066,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -1898,8 +2080,11 @@
       <c r="C7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -1909,8 +2094,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -1920,8 +2108,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -1931,8 +2122,11 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -1942,8 +2136,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -1953,8 +2150,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -1964,8 +2164,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -1975,115 +2178,148 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>103</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>104</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>105</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>139</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>140</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>141</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>148</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>149</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>166</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>167</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
